--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value45.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value45.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6473299911088797</v>
+        <v>1.676693797111511</v>
       </c>
       <c r="B1">
-        <v>1.003650981948975</v>
+        <v>2.409196376800537</v>
       </c>
       <c r="C1">
-        <v>2.365917447145899</v>
+        <v>4.78117847442627</v>
       </c>
       <c r="D1">
-        <v>3.573268784042701</v>
+        <v>4.396365642547607</v>
       </c>
       <c r="E1">
-        <v>1.71680880055781</v>
+        <v>1.371733784675598</v>
       </c>
     </row>
   </sheetData>
